--- a/html/resources/hiragana2.xlsx
+++ b/html/resources/hiragana2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mt00212\Documents\Tasks\Probabilistic Learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uni\PhD\Tasks\Probabilistic Learning Pavlovia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,21 +41,6 @@
     <t>c</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>letterA</t>
   </si>
   <si>
@@ -65,13 +50,28 @@
     <t>letterE</t>
   </si>
   <si>
-    <t>J</t>
+    <t>11.jpg</t>
+  </si>
+  <si>
+    <t>12.jpg</t>
+  </si>
+  <si>
+    <t>13.jpg</t>
+  </si>
+  <si>
+    <t>14.jpg</t>
+  </si>
+  <si>
+    <t>15.jpg</t>
+  </si>
+  <si>
+    <t>16.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,11 +117,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,21 +437,21 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -462,11 +463,11 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -478,11 +479,11 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -494,11 +495,11 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -510,11 +511,11 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -526,11 +527,11 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -542,11 +543,11 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -558,11 +559,11 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -574,11 +575,11 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -590,11 +591,11 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -606,11 +607,11 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -623,11 +624,11 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -640,11 +641,11 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -657,11 +658,11 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -674,11 +675,11 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
+      <c r="A16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -691,11 +692,11 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
+      <c r="A17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
@@ -708,11 +709,11 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>6</v>
+      <c r="A18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -725,11 +726,11 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
+      <c r="A19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -742,11 +743,11 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>6</v>
+      <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -759,11 +760,11 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
+      <c r="A21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
@@ -775,11 +776,11 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>9</v>
+      <c r="A22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -792,11 +793,11 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>9</v>
+      <c r="A23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -809,11 +810,11 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>9</v>
+      <c r="A24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -826,11 +827,11 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>8</v>
+      <c r="A25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
@@ -843,11 +844,11 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>8</v>
+      <c r="A26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
@@ -860,11 +861,11 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>8</v>
+      <c r="A27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
@@ -877,11 +878,11 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>9</v>
+      <c r="A28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
@@ -894,11 +895,11 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>9</v>
+      <c r="A29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
@@ -911,11 +912,11 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>8</v>
+      <c r="A30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -928,11 +929,11 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>8</v>
+      <c r="A31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -1186,5 +1187,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/html/resources/hiragana2.xlsx
+++ b/html/resources/hiragana2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uni\PhD\Tasks\Probabilistic Learning Pavlovia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\uni\PhD\Tasks\Probabilistic Learning Pavlovia\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF15F0B-421D-44E4-A2F8-787DD92EFEA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,28 +51,28 @@
     <t>letterE</t>
   </si>
   <si>
-    <t>11.jpg</t>
-  </si>
-  <si>
-    <t>12.jpg</t>
-  </si>
-  <si>
-    <t>13.jpg</t>
-  </si>
-  <si>
-    <t>14.jpg</t>
-  </si>
-  <si>
-    <t>15.jpg</t>
-  </si>
-  <si>
-    <t>16.jpg</t>
+    <t>l11.jpg</t>
+  </si>
+  <si>
+    <t>l12.jpg</t>
+  </si>
+  <si>
+    <t>l13.jpg</t>
+  </si>
+  <si>
+    <t>l14.jpg</t>
+  </si>
+  <si>
+    <t>l15.jpg</t>
+  </si>
+  <si>
+    <t>l16.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,11 +403,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:A31"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
